--- a/Daily/ACF - PACF/First Difference/Nippon_tel residuals - values.xlsx
+++ b/Daily/ACF - PACF/First Difference/Nippon_tel residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002542477590176714</v>
+        <v>0.009155287627480805</v>
       </c>
       <c r="C3">
-        <v>0.002543461902058287</v>
+        <v>0.009158832067135235</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01843867955270555</v>
+        <v>-0.0005133390619283256</v>
       </c>
       <c r="C4">
-        <v>0.01844661216740534</v>
+        <v>-0.0005976710309392467</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01998010281620731</v>
+        <v>0.01211045293331449</v>
       </c>
       <c r="C5">
-        <v>0.01991724580747344</v>
+        <v>0.01213573373922139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01281205095773332</v>
+        <v>-0.009406511207705918</v>
       </c>
       <c r="C6">
-        <v>-0.01327450726302907</v>
+        <v>-0.009646042220830478</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.003021881335464728</v>
+        <v>0.004498647373683758</v>
       </c>
       <c r="C7">
-        <v>-0.003707609597595109</v>
+        <v>0.004699707563609677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02435540163264382</v>
+        <v>-0.02271123825487013</v>
       </c>
       <c r="C8">
-        <v>-0.02433368305205276</v>
+        <v>-0.02301770522984331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.06216957783703521</v>
+        <v>-0.03447469042793379</v>
       </c>
       <c r="C9">
-        <v>-0.06167319195922952</v>
+        <v>-0.03392974656240821</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.003865670889675518</v>
+        <v>-0.0006965018303141208</v>
       </c>
       <c r="C10">
-        <v>-0.002837129892249036</v>
+        <v>-0.0003212315600140297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.01564761670681131</v>
+        <v>0.0168929120100351</v>
       </c>
       <c r="C11">
-        <v>-0.01259640760208896</v>
+        <v>0.01759060134546072</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01962565792351477</v>
+        <v>-0.002747428293712527</v>
       </c>
       <c r="C12">
-        <v>-0.01779911334472985</v>
+        <v>-0.002678508480406858</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.03288455862708608</v>
+        <v>-0.0159324938082406</v>
       </c>
       <c r="C13">
-        <v>-0.03421926479710553</v>
+        <v>-0.01638951448321917</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01159719024013157</v>
+        <v>0.01979206800909598</v>
       </c>
       <c r="C14">
-        <v>-0.01154086116975371</v>
+        <v>0.01958352469490113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.00704681719624179</v>
+        <v>0.01362361980214636</v>
       </c>
       <c r="C15">
-        <v>0.005608791834805909</v>
+        <v>0.01221394911921432</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.01502471350511105</v>
+        <v>0.01320015854751394</v>
       </c>
       <c r="C16">
-        <v>-0.01812697647750104</v>
+        <v>0.01206626495530687</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0255401761253935</v>
+        <v>0.03636389491269185</v>
       </c>
       <c r="C17">
-        <v>0.02399866912925616</v>
+        <v>0.03645087365885089</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.01876717578155169</v>
+        <v>-0.01121557427077756</v>
       </c>
       <c r="C18">
-        <v>-0.02189520397869409</v>
+        <v>-0.0106625689714765</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.04999663349562734</v>
+        <v>-0.03404027191087639</v>
       </c>
       <c r="C19">
-        <v>-0.05495189636885692</v>
+        <v>-0.0353911333018466</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01135264884285997</v>
+        <v>0.004840581018854425</v>
       </c>
       <c r="C20">
-        <v>0.005823827980167825</v>
+        <v>0.00419277222351102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.003171167992289234</v>
+        <v>0.0135644043780476</v>
       </c>
       <c r="C21">
-        <v>0.004457171205956984</v>
+        <v>0.0165622965310499</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03646503757199561</v>
+        <v>-0.04232793296222036</v>
       </c>
       <c r="C22">
-        <v>-0.03736416756301597</v>
+        <v>-0.04090727835271103</v>
       </c>
     </row>
   </sheetData>
